--- a/src/ExcelsiorSyncfusion.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ComplexTypeWithSplitterUseHierachyForName.Test.verified.xlsx
@@ -155,12 +155,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.84765625" customWidth="1"/>
-    <col min="6" max="6" width="24.27734375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
